--- a/ART Analytics Tech Selection.xlsx
+++ b/ART Analytics Tech Selection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agilavasu_p\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06 Agila\01 Proj\01 Art\01  AaaS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,17 +17,18 @@
     <sheet name="03 ETL" sheetId="18" r:id="rId3"/>
     <sheet name="04 Analytics" sheetId="19" r:id="rId4"/>
     <sheet name="05 MPP" sheetId="13" r:id="rId5"/>
-    <sheet name="06 Visual" sheetId="11" r:id="rId6"/>
-    <sheet name="07 BI Comparison" sheetId="15" r:id="rId7"/>
-    <sheet name="07 ReportServer" sheetId="16" r:id="rId8"/>
-    <sheet name="08 Directory Service" sheetId="12" r:id="rId9"/>
+    <sheet name="06 Visual .js Comparison" sheetId="20" r:id="rId6"/>
+    <sheet name="06 Visual Shiny" sheetId="11" r:id="rId7"/>
+    <sheet name="07 BI Comparison" sheetId="15" r:id="rId8"/>
+    <sheet name="07 ReportServer" sheetId="16" r:id="rId9"/>
+    <sheet name="08 Directory Service" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="438">
   <si>
     <t>Greenplum</t>
   </si>
@@ -844,12 +845,933 @@
   <si>
     <t>Docker Monitoring</t>
   </si>
+  <si>
+    <t>Visual.ly</t>
+  </si>
+  <si>
+    <t>PiktoChart</t>
+  </si>
+  <si>
+    <t>Processing.js</t>
+  </si>
+  <si>
+    <t>Polymaps</t>
+  </si>
+  <si>
+    <t>Timeline.js</t>
+  </si>
+  <si>
+    <t>pykCharts</t>
+  </si>
+  <si>
+    <t>dimple.js</t>
+  </si>
+  <si>
+    <t>C3.js</t>
+  </si>
+  <si>
+    <t>D3.js</t>
+  </si>
+  <si>
+    <t>Chart JS</t>
+  </si>
+  <si>
+    <t>FusionCharts</t>
+  </si>
+  <si>
+    <t>Dygraphs</t>
+  </si>
+  <si>
+    <t>Commercial[33]</t>
+  </si>
+  <si>
+    <t>Yes[34]</t>
+  </si>
+  <si>
+    <t>Yes[32]</t>
+  </si>
+  <si>
+    <t>Yes[31]</t>
+  </si>
+  <si>
+    <t>Yes[30]</t>
+  </si>
+  <si>
+    <t>Yes[29]</t>
+  </si>
+  <si>
+    <t>Yes[28]</t>
+  </si>
+  <si>
+    <t>Yes[27]</t>
+  </si>
+  <si>
+    <t>Yes[26]</t>
+  </si>
+  <si>
+    <t>Yes[25]</t>
+  </si>
+  <si>
+    <t>Yes[24]</t>
+  </si>
+  <si>
+    <t>Yes[23]</t>
+  </si>
+  <si>
+    <t>DevExtreme</t>
+  </si>
+  <si>
+    <r>
+      <t>Proprietary</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4]</t>
+    </r>
+  </si>
+  <si>
+    <t>AnyChart</t>
+  </si>
+  <si>
+    <t>Non-commercial or commercial[96]</t>
+  </si>
+  <si>
+    <t>Yes[97]</t>
+  </si>
+  <si>
+    <t>ZoomCharts</t>
+  </si>
+  <si>
+    <r>
+      <t>Free with a link </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[93]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> or commercial</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[94]</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes[95]</t>
+  </si>
+  <si>
+    <t>ZingChart</t>
+  </si>
+  <si>
+    <r>
+      <t>BSD-3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[91]</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes[92]</t>
+  </si>
+  <si>
+    <t>YUI Charts</t>
+  </si>
+  <si>
+    <t>MIT[89]</t>
+  </si>
+  <si>
+    <t>Yes[90]</t>
+  </si>
+  <si>
+    <t>xcharts</t>
+  </si>
+  <si>
+    <t>MIT [88]</t>
+  </si>
+  <si>
+    <t>Webcharts</t>
+  </si>
+  <si>
+    <r>
+      <t>cc-by-nc 4.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[86]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or commercial </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[87]</t>
+    </r>
+  </si>
+  <si>
+    <t>VanCharts</t>
+  </si>
+  <si>
+    <t>Commercial[85]</t>
+  </si>
+  <si>
+    <t>Vaadin Charts</t>
+  </si>
+  <si>
+    <t>Non-commercial or commercial[84]</t>
+  </si>
+  <si>
+    <t>TeeChart for Javascript</t>
+  </si>
+  <si>
+    <r>
+      <t>Free</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[82]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> or commercial</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[83]</t>
+    </r>
+  </si>
+  <si>
+    <t>Syncfusion</t>
+  </si>
+  <si>
+    <t>Non-commercial or commercial[80]</t>
+  </si>
+  <si>
+    <t>Yes[81]</t>
+  </si>
+  <si>
+    <t>Shield UI</t>
+  </si>
+  <si>
+    <t>MIT[78]</t>
+  </si>
+  <si>
+    <t>Yes[79]</t>
+  </si>
+  <si>
+    <t>rickshaw</t>
+  </si>
+  <si>
+    <t>GPL or commercial[76]</t>
+  </si>
+  <si>
+    <t>Yes[77]</t>
+  </si>
+  <si>
+    <t>RGraph</t>
+  </si>
+  <si>
+    <t>PlusCharts</t>
+  </si>
+  <si>
+    <t>MIT[74]</t>
+  </si>
+  <si>
+    <t>Yes[75]</t>
+  </si>
+  <si>
+    <t>plotly.js</t>
+  </si>
+  <si>
+    <t>Free basic edition[73]</t>
+  </si>
+  <si>
+    <t>OLAPCharts</t>
+  </si>
+  <si>
+    <t>Apache 2.0[71]</t>
+  </si>
+  <si>
+    <t>Yes[72]</t>
+  </si>
+  <si>
+    <t>NVD3</t>
+  </si>
+  <si>
+    <t>Apache 2.0[70]</t>
+  </si>
+  <si>
+    <t>NextCharts</t>
+  </si>
+  <si>
+    <t>Mozilla Public License Version 2.0[69]</t>
+  </si>
+  <si>
+    <t>MetricsGraphics</t>
+  </si>
+  <si>
+    <r>
+      <t>Free (with a watermark) </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[66]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or commercial</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[67]</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes[68]</t>
+  </si>
+  <si>
+    <t>KoolChart</t>
+  </si>
+  <si>
+    <t>MIT or GPLv2[64]</t>
+  </si>
+  <si>
+    <t>Yes[65]</t>
+  </si>
+  <si>
+    <t>jqPlot</t>
+  </si>
+  <si>
+    <r>
+      <t>BSD-3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[62]</t>
+    </r>
+  </si>
+  <si>
+    <t>No[63]</t>
+  </si>
+  <si>
+    <t>JenScript</t>
+  </si>
+  <si>
+    <t>Non-commercial or commercial[61]</t>
+  </si>
+  <si>
+    <t>Highcharts, Highstock</t>
+  </si>
+  <si>
+    <t>MIT[59]</t>
+  </si>
+  <si>
+    <t>Yes[60]</t>
+  </si>
+  <si>
+    <t>gRaphael</t>
+  </si>
+  <si>
+    <t>Google controls API, code samples Apache 2.0[57]</t>
+  </si>
+  <si>
+    <t>Yes[58]</t>
+  </si>
+  <si>
+    <t>Google Chart Tools</t>
+  </si>
+  <si>
+    <t>MIT[55]</t>
+  </si>
+  <si>
+    <t>Yes[56]</t>
+  </si>
+  <si>
+    <t>Flotr2</t>
+  </si>
+  <si>
+    <r>
+      <t>Free for personal and non-commercial uses.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[52]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Paid for commercial applications.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[53]</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes[54]</t>
+  </si>
+  <si>
+    <t>MIT[50]</t>
+  </si>
+  <si>
+    <t>Yes[51]</t>
+  </si>
+  <si>
+    <t>Flot Charts</t>
+  </si>
+  <si>
+    <t>Non-commercial or commercial [49]</t>
+  </si>
+  <si>
+    <t>Yes[48]</t>
+  </si>
+  <si>
+    <t>Yes[47]</t>
+  </si>
+  <si>
+    <t>Yes[46]</t>
+  </si>
+  <si>
+    <t>Yes[45]</t>
+  </si>
+  <si>
+    <t>Yes[44]</t>
+  </si>
+  <si>
+    <t>Yes[43]</t>
+  </si>
+  <si>
+    <t>Yes[42]</t>
+  </si>
+  <si>
+    <t>Yes[41]</t>
+  </si>
+  <si>
+    <t>Factmint Charts</t>
+  </si>
+  <si>
+    <t>MIT[40]</t>
+  </si>
+  <si>
+    <t>BSD or AFL[38]</t>
+  </si>
+  <si>
+    <t>Yes[39]</t>
+  </si>
+  <si>
+    <t>Dojo Charting</t>
+  </si>
+  <si>
+    <t>MIT[37]</t>
+  </si>
+  <si>
+    <t>dimple</t>
+  </si>
+  <si>
+    <t>GPL or Commercial[36]</t>
+  </si>
+  <si>
+    <t>Yes[35]</t>
+  </si>
+  <si>
+    <t>DHTMLX Charts</t>
+  </si>
+  <si>
+    <t>Apache 2.0[21]</t>
+  </si>
+  <si>
+    <t>Yes[22]</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <r>
+      <t>BSD-3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[19]</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes[20]</t>
+  </si>
+  <si>
+    <r>
+      <t>D3.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>MIT[16]</t>
+  </si>
+  <si>
+    <t>Cytoscape.js</t>
+  </si>
+  <si>
+    <t>Free basic edition[15]</t>
+  </si>
+  <si>
+    <t>Charts 4 PHP</t>
+  </si>
+  <si>
+    <t>No[14]</t>
+  </si>
+  <si>
+    <t>Chart Builder By Livegap</t>
+  </si>
+  <si>
+    <t>MIT[13]</t>
+  </si>
+  <si>
+    <t>Chart.js</t>
+  </si>
+  <si>
+    <r>
+      <t>WTFPL</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> or MIT</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[12]</t>
+    </r>
+  </si>
+  <si>
+    <t>Chartist</t>
+  </si>
+  <si>
+    <r>
+      <t>GPLv3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, name/email required for source link</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[8]</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes[10]</t>
+  </si>
+  <si>
+    <t>Yes[9]</t>
+  </si>
+  <si>
+    <t>canvasXpress</t>
+  </si>
+  <si>
+    <r>
+      <t>CC BY-NC 3.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> or commercial</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes[7]</t>
+  </si>
+  <si>
+    <t>CanvasJS</t>
+  </si>
+  <si>
+    <t>MIT[5]</t>
+  </si>
+  <si>
+    <r>
+      <t>Free with a link </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> or commercial</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes[3]</t>
+  </si>
+  <si>
+    <t>amCharts</t>
+  </si>
+  <si>
+    <t>AxisXY</t>
+  </si>
+  <si>
+    <t>VML</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>HTML5 Canvas</t>
+  </si>
+  <si>
+    <t>onClick</t>
+  </si>
+  <si>
+    <t>Mouse Over</t>
+  </si>
+  <si>
+    <t>Legends</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Stacked</t>
+  </si>
+  <si>
+    <t>Grouped</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Gantt</t>
+  </si>
+  <si>
+    <t>Funnel</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Scatter</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Databinding</t>
+  </si>
+  <si>
+    <t>Rendering Technologies</t>
+  </si>
+  <si>
+    <t>Interactivity</t>
+  </si>
+  <si>
+    <t>Other Features</t>
+  </si>
+  <si>
+    <t>Supported Bar Chart Types</t>
+  </si>
+  <si>
+    <t>Supported Chart Types</t>
+  </si>
+  <si>
+    <t>Framework Name</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks</t>
+  </si>
+  <si>
+    <t>http://techslides.com/over-1000-d3-js-examples-and-demos</t>
+  </si>
+  <si>
+    <t>http://blog.vida.io/2014/07/06/bigquery-big-data-visualization-with-d3-dot-js/</t>
+  </si>
+  <si>
+    <t>https://mango-is.com/blog/engineering/pre-render-d3-js-charts-at-server-side/</t>
+  </si>
+  <si>
+    <t>D3 Important links</t>
+  </si>
+  <si>
+    <t>https://www.dashingd3js.com/table-of-contents</t>
+  </si>
+  <si>
+    <t>Metadata framework</t>
+  </si>
+  <si>
+    <t>Cloud foundry</t>
+  </si>
+  <si>
+    <t>Performance Tuning</t>
+  </si>
+  <si>
+    <t>Distribution strategy based on JOIN clause</t>
+  </si>
+  <si>
+    <t>Partion strategy based on WHERE clause</t>
+  </si>
+  <si>
+    <t>Get the storage parameters right</t>
+  </si>
+  <si>
+    <t>Hybring - loading one and later for cold data another</t>
+  </si>
+  <si>
+    <t>Column Vs Row</t>
+  </si>
+  <si>
+    <t>Digital Certificates Key Mgmt.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Let%27s_Encrypt</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Internet_Security_Research_Group</t>
+  </si>
+  <si>
+    <t>https://letsencrypt.org/certificates/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Certificate_authority</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,14 +1781,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1016,8 +1930,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0B0080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF0B0080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF663366"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,8 +2056,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1158,29 +2160,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1188,60 +2254,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1253,7 +2318,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,117 +2327,217 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1401,11 +2566,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127972</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5663601" cy="3818000"/>
+    <xdr:ext cx="4682526" cy="3156628"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -1421,8 +2586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="1190625"/>
-          <a:ext cx="5663601" cy="3818000"/>
+          <a:off x="1285875" y="889972"/>
+          <a:ext cx="4682526" cy="3156628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1721,284 +2886,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="62">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C2" s="87" t="s">
+        <v>425</v>
+      </c>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="62">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B5" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="E5" s="64"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="62">
         <v>3</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="59" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="62">
         <v>4</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B14" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="62">
+        <v>5</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="62">
+        <v>6</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="62">
+        <v>7</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="62">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>5</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>6</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>7</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>8</v>
-      </c>
-      <c r="B32" s="66" t="s">
+      <c r="B33" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D34" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="E35" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="E36" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="E38" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="62">
         <v>9</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" s="1" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="108"/>
+      <c r="C10" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="108"/>
+      <c r="C11" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="108"/>
+      <c r="C12" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="108"/>
+      <c r="C13" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2032,29 +3366,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C6"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
       <c r="C4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2066,20 +3400,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B11"/>
+  <dimension ref="B2:B20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2111,6 +3446,36 @@
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="89" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="88" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="88" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -2124,246 +3489,3979 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y60"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="73.28515625" style="66" customWidth="1"/>
+    <col min="26" max="16384" width="9.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="83" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1" s="95" t="s">
+        <v>414</v>
+      </c>
+      <c r="T1" s="97"/>
+      <c r="U1" s="95" t="s">
+        <v>413</v>
+      </c>
+      <c r="V1" s="96"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="83" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y1" s="84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="91"/>
+      <c r="B2" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>403</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>402</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>401</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q2" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="R2" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="S2" s="83" t="s">
+        <v>394</v>
+      </c>
+      <c r="T2" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="U2" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="V2" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="W2" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="X2" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y2" s="81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="W3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y4" s="76" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U5" s="71" t="s">
+        <v>383</v>
+      </c>
+      <c r="V5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="71" t="s">
+        <v>380</v>
+      </c>
+      <c r="V6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W6" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="80" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V7" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V8" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W8" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X8" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y8" s="76" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="W9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W11" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X11" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" s="76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V12" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="W12" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="75" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="R13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V13" s="71" t="s">
+        <v>363</v>
+      </c>
+      <c r="W13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="L14" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W14" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="67" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y15" s="76" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W16" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="76" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W17" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="76" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="P18" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q18" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="R18" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T18" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V18" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W18" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="67" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="R19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U19" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="V19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W19" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V20" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W20" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="74" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U21" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="V21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W21" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="76" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W22" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R23" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S23" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="U23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V23" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="W23" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U24" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U25" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="V25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W25" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y25" s="75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T26" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U26" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="V26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W26" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U27" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="V27" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X27" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y27" s="74" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U28" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W28" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="76" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X29" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y29" s="76" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T30" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U30" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V30" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="W30" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="76" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U31" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V31" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W31" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V32" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="W32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="76" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W33" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P34" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U34" s="71" t="s">
+        <v>303</v>
+      </c>
+      <c r="V34" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W34" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="72" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M35" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N35" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="R35" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S35" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="U35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V35" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="W35" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="76" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U36" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V36" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W36" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K37" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X37" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y37" s="74" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U38" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V38" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W38" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U39" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W39" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L40" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V40" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W40" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="74" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V41" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W41" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M42" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="O42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="R42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="S42" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V42" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="W42" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="76" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="R43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T43" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="U43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V43" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W43" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="V44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W44" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="X44" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y44" s="74" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U45" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="V45" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="W45" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="O50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U50" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X50" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y50" s="73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="I51" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="J51" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L51" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M51" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N51" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="O51" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q51" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R51" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="S51" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="T51" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="U51" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="V51" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="W51" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X51" s="68"/>
+      <c r="Y51" s="67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" s="86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H57" s="85"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H58" s="85"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H59" s="85"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N1" r:id="rId1" tooltip="Bar chart" display="https://en.wikipedia.org/wiki/Bar_chart"/>
+    <hyperlink ref="S1" r:id="rId2" tooltip="Event (computing)" display="https://en.wikipedia.org/wiki/Event_(computing)"/>
+    <hyperlink ref="U1" r:id="rId3" tooltip="Rendering (computer graphics)" display="https://en.wikipedia.org/wiki/Rendering_(computer_graphics)"/>
+    <hyperlink ref="B2" r:id="rId4" tooltip="Line chart" display="https://en.wikipedia.org/wiki/Line_chart"/>
+    <hyperlink ref="D2" r:id="rId5" tooltip="Scatter plot" display="https://en.wikipedia.org/wiki/Scatter_plot"/>
+    <hyperlink ref="E2" r:id="rId6" tooltip="Area chart" display="https://en.wikipedia.org/wiki/Area_chart"/>
+    <hyperlink ref="F2" r:id="rId7" tooltip="Pie chart" display="https://en.wikipedia.org/wiki/Pie_chart"/>
+    <hyperlink ref="G2" r:id="rId8" location="Doughnut_chart" tooltip="Donut chart" display="https://en.wikipedia.org/wiki/Donut_chart - Doughnut_chart"/>
+    <hyperlink ref="H2" r:id="rId9" tooltip="Bullet graph" display="https://en.wikipedia.org/wiki/Bullet_graph"/>
+    <hyperlink ref="I2" r:id="rId10" tooltip="Radar chart" display="https://en.wikipedia.org/wiki/Radar_chart"/>
+    <hyperlink ref="J2" r:id="rId11" tooltip="Funnel chart" display="https://en.wikipedia.org/wiki/Funnel_chart"/>
+    <hyperlink ref="K2" r:id="rId12" tooltip="Gantt chart" display="https://en.wikipedia.org/wiki/Gantt_chart"/>
+    <hyperlink ref="Y2" r:id="rId13" tooltip="Software license" display="https://en.wikipedia.org/wiki/Software_license"/>
+    <hyperlink ref="R2" r:id="rId14" location="Features_of_a_chart" tooltip="Chart" display="https://en.wikipedia.org/wiki/Chart - Features_of_a_chart"/>
+    <hyperlink ref="U2" r:id="rId15" tooltip="Canvas element" display="https://en.wikipedia.org/wiki/Canvas_element"/>
+    <hyperlink ref="V2" r:id="rId16" tooltip="Scalable Vector Graphics" display="https://en.wikipedia.org/wiki/Scalable_Vector_Graphics"/>
+    <hyperlink ref="W2" r:id="rId17" tooltip="Vector Markup Language" display="https://en.wikipedia.org/wiki/Vector_Markup_Language"/>
+    <hyperlink ref="X2" r:id="rId18" tooltip="Databinding on both AXIS x and y (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Databinding_on_both_AXIS_x_and_y&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="A3" r:id="rId19" display="http://www.amcharts.com/"/>
+    <hyperlink ref="V3" r:id="rId20" location="cite_note-3" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-3"/>
+    <hyperlink ref="A50" r:id="rId21" display="http://www.anychart.com/"/>
+    <hyperlink ref="A4" r:id="rId22" display="http://c3js.org/"/>
+    <hyperlink ref="Y4" r:id="rId23" location="cite_note-5" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-5"/>
+    <hyperlink ref="A5" r:id="rId24" display="http://canvasjs.com/"/>
+    <hyperlink ref="U5" r:id="rId25" location="cite_note-7" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-7"/>
+    <hyperlink ref="A6" r:id="rId26" display="http://canvasxpress.org/"/>
+    <hyperlink ref="U6" r:id="rId27" location="cite_note-9" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-9"/>
+    <hyperlink ref="W6" r:id="rId28" location="cite_note-10" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-10"/>
+    <hyperlink ref="A7" r:id="rId29" display="http://gionkunz.github.io/chartist-js/"/>
+    <hyperlink ref="A8" r:id="rId30" display="http://chartjs.org/"/>
+    <hyperlink ref="Y8" r:id="rId31" location="cite_note-13" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-13"/>
+    <hyperlink ref="A9" r:id="rId32" display="http://charts.livegap.com/"/>
+    <hyperlink ref="V9" r:id="rId33" location="cite_note-14" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-14"/>
+    <hyperlink ref="A10" r:id="rId34" display="http://www.chartphp.com/"/>
+    <hyperlink ref="Y10" r:id="rId35" location="cite_note-15" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-15"/>
+    <hyperlink ref="A11" r:id="rId36" display="http://js.cytoscape.org/"/>
+    <hyperlink ref="Y11" r:id="rId37" location="cite_note-16" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-16"/>
+    <hyperlink ref="V12" r:id="rId38" location="cite_note-20" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-20"/>
+    <hyperlink ref="A13" r:id="rId39" display="http://nickqizhu.github.com/dc.js/"/>
+    <hyperlink ref="Y13" r:id="rId40" location="cite_note-21" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-21"/>
+    <hyperlink ref="V13" r:id="rId41" location="cite_note-22" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-22"/>
+    <hyperlink ref="A51" r:id="rId42" display="http://js.devexpress.com/WebDevelopment/Charts/"/>
+    <hyperlink ref="B51" r:id="rId43" location="cite_note-23" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-23"/>
+    <hyperlink ref="D51" r:id="rId44" location="cite_note-24" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-24"/>
+    <hyperlink ref="E51" r:id="rId45" location="cite_note-25" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-25"/>
+    <hyperlink ref="F51" r:id="rId46" location="cite_note-26" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-26"/>
+    <hyperlink ref="G51" r:id="rId47" location="cite_note-27" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-27"/>
+    <hyperlink ref="H51" r:id="rId48" location="cite_note-28" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-28"/>
+    <hyperlink ref="I51" r:id="rId49" location="cite_note-29" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-29"/>
+    <hyperlink ref="M51" r:id="rId50" location="cite_note-30" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-30"/>
+    <hyperlink ref="N51" r:id="rId51" location="cite_note-31" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-31"/>
+    <hyperlink ref="P51" r:id="rId52" location="cite_note-32" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-32"/>
+    <hyperlink ref="Y51" r:id="rId53" location="cite_note-33" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-33"/>
+    <hyperlink ref="S51" r:id="rId54" location="cite_note-34" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-34"/>
+    <hyperlink ref="A14" r:id="rId55" display="http://www.dhtmlx.com/docs/products/dhtmlxChart/index.shtml"/>
+    <hyperlink ref="K14" r:id="rId56" location="cite_note-35" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-35"/>
+    <hyperlink ref="Y14" r:id="rId57" location="cite_note-36" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-36"/>
+    <hyperlink ref="A15" r:id="rId58" display="http://dimplejs.org/"/>
+    <hyperlink ref="Y15" r:id="rId59" location="cite_note-37" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-37"/>
+    <hyperlink ref="A16" r:id="rId60" display="http://dojotoolkit.org/reference-guide/1.10/dojox/charting.html"/>
+    <hyperlink ref="Y16" r:id="rId61" location="cite_note-38" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-38"/>
+    <hyperlink ref="W16" r:id="rId62" location="cite_note-39" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-39"/>
+    <hyperlink ref="A17" r:id="rId63" display="http://dygraphs.com/"/>
+    <hyperlink ref="Y17" r:id="rId64" location="cite_note-40" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-40"/>
+    <hyperlink ref="A18" r:id="rId65" display="http://factmint.com/charts-overview/"/>
+    <hyperlink ref="B18" r:id="rId66" location="cite_note-41" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-41"/>
+    <hyperlink ref="D18" r:id="rId67" location="cite_note-42" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-42"/>
+    <hyperlink ref="E18" r:id="rId68" location="cite_note-43" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-43"/>
+    <hyperlink ref="F18" r:id="rId69" location="cite_note-44" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-44"/>
+    <hyperlink ref="G18" r:id="rId70" location="cite_note-45" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-45"/>
+    <hyperlink ref="O18" r:id="rId71" location="cite_note-46" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-46"/>
+    <hyperlink ref="P18" r:id="rId72" location="cite_note-47" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-47"/>
+    <hyperlink ref="Q18" r:id="rId73" location="cite_note-48" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-48"/>
+    <hyperlink ref="Y18" r:id="rId74" location="cite_note-49" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-49"/>
+    <hyperlink ref="A19" r:id="rId75" display="http://www.flotcharts.org/"/>
+    <hyperlink ref="Y19" r:id="rId76" location="cite_note-50" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-50"/>
+    <hyperlink ref="U19" r:id="rId77" location="cite_note-51" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-51"/>
+    <hyperlink ref="A20" r:id="rId78" display="http://www.fusioncharts.com/"/>
+    <hyperlink ref="W20" r:id="rId79" location="cite_note-54" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-54"/>
+    <hyperlink ref="A21" r:id="rId80" display="http://humblesoftware.com/flotr2/"/>
+    <hyperlink ref="Y21" r:id="rId81" location="cite_note-55" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-55"/>
+    <hyperlink ref="U21" r:id="rId82" location="cite_note-56" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-56"/>
+    <hyperlink ref="A22" r:id="rId83" display="https://developers.google.com/chart/"/>
+    <hyperlink ref="Y22" r:id="rId84" location="cite_note-57" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-57"/>
+    <hyperlink ref="W22" r:id="rId85" location="cite_note-58" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-58"/>
+    <hyperlink ref="A23" r:id="rId86" display="http://g.raphaeljs.com/"/>
+    <hyperlink ref="Y23" r:id="rId87" location="cite_note-59" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-59"/>
+    <hyperlink ref="V23" r:id="rId88" location="cite_note-60" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-60"/>
+    <hyperlink ref="A24" r:id="rId89" display="http://www.highcharts.com/"/>
+    <hyperlink ref="Y24" r:id="rId90" location="cite_note-61" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-61"/>
+    <hyperlink ref="A25" r:id="rId91" display="http://jenscript.io/"/>
+    <hyperlink ref="U25" r:id="rId92" location="cite_note-63" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-63"/>
+    <hyperlink ref="A26" r:id="rId93" display="http://www.jqplot.com/"/>
+    <hyperlink ref="Y26" r:id="rId94" location="cite_note-64" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-64"/>
+    <hyperlink ref="U26" r:id="rId95" location="cite_note-65" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-65"/>
+    <hyperlink ref="A27" r:id="rId96" display="http://koolchart.com/"/>
+    <hyperlink ref="U27" r:id="rId97" location="cite_note-68" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-68"/>
+    <hyperlink ref="A28" r:id="rId98" display="http://metricsgraphicsjs.org/"/>
+    <hyperlink ref="Y28" r:id="rId99" location="cite_note-69" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-69"/>
+    <hyperlink ref="A29" r:id="rId100" display="https://github.com/nextreports/nextcharts/"/>
+    <hyperlink ref="Y29" r:id="rId101" location="cite_note-70" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-70"/>
+    <hyperlink ref="A30" r:id="rId102" display="http://nvd3.org/"/>
+    <hyperlink ref="Y30" r:id="rId103" location="cite_note-71" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-71"/>
+    <hyperlink ref="V30" r:id="rId104" location="cite_note-72" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-72"/>
+    <hyperlink ref="A31" r:id="rId105" display="http://www.olapcharts.com/"/>
+    <hyperlink ref="Y31" r:id="rId106" location="cite_note-73" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-73"/>
+    <hyperlink ref="A32" r:id="rId107" display="https://plot.ly/javascript"/>
+    <hyperlink ref="Y32" r:id="rId108" location="cite_note-74" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-74"/>
+    <hyperlink ref="V32" r:id="rId109" location="cite_note-75" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-75"/>
+    <hyperlink ref="A33" r:id="rId110" display="http://www.pluscharts.com/"/>
+    <hyperlink ref="A34" r:id="rId111" display="http://www.rgraph.net/"/>
+    <hyperlink ref="Y34" r:id="rId112" location="cite_note-76" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-76"/>
+    <hyperlink ref="U34" r:id="rId113" location="cite_note-77" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-77"/>
+    <hyperlink ref="A35" r:id="rId114" display="http://code.shutterstock.com/rickshaw/"/>
+    <hyperlink ref="Y35" r:id="rId115" location="cite_note-78" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-78"/>
+    <hyperlink ref="V35" r:id="rId116" location="cite_note-79" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-79"/>
+    <hyperlink ref="A36" r:id="rId117" display="http://www.shieldui.com/"/>
+    <hyperlink ref="Y36" r:id="rId118" location="cite_note-80" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-80"/>
+    <hyperlink ref="W36" r:id="rId119" location="cite_note-81" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-81"/>
+    <hyperlink ref="A37" r:id="rId120" display="http://www.syncfusion.com/"/>
+    <hyperlink ref="H37" r:id="rId121" location="!/azure/bulletgraph/defaultfunctionalities" display="http://js.syncfusion.com/demos/web/ - !/azure/bulletgraph/defaultfunctionalities"/>
+    <hyperlink ref="K37" r:id="rId122" location="!/azure/gantt/defaultfunctionalities" display="http://js.syncfusion.com/demos/web/ - !/azure/gantt/defaultfunctionalities"/>
+    <hyperlink ref="A38" r:id="rId123" display="http://steema.com/product/html5/"/>
+    <hyperlink ref="Y38" r:id="rId124" location="cite_note-84" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-84"/>
+    <hyperlink ref="A39" r:id="rId125" display="https://vaadin.com/charts-for-javascript/"/>
+    <hyperlink ref="Y39" r:id="rId126" location="cite_note-85" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-85"/>
+    <hyperlink ref="A40" r:id="rId127" display="http://www.vancharts.com/"/>
+    <hyperlink ref="A41" r:id="rId128" display="https://github.com/RhoInc/Webcharts/"/>
+    <hyperlink ref="Y41" r:id="rId129" location="cite_note-88" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-88"/>
+    <hyperlink ref="A42" r:id="rId130" display="http://tenxer.github.com/xcharts/"/>
+    <hyperlink ref="Y42" r:id="rId131" location="cite_note-89" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-89"/>
+    <hyperlink ref="V42" r:id="rId132" location="cite_note-90" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-90"/>
+    <hyperlink ref="A43" r:id="rId133" display="http://yuilibrary.com/yui/docs/charts/"/>
+    <hyperlink ref="W43" r:id="rId134" location="cite_note-92" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-92"/>
+    <hyperlink ref="A44" r:id="rId135" display="http://www.zingchart.com/"/>
+    <hyperlink ref="W44" r:id="rId136" location="cite_note-95" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-95"/>
+    <hyperlink ref="A45" r:id="rId137" display="http://zoomcharts.com/en/for-developers/"/>
+    <hyperlink ref="Y45" r:id="rId138" location="cite_note-96" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-96"/>
+    <hyperlink ref="U45" r:id="rId139" location="cite_note-97" display="https://en.wikipedia.org/wiki/Comparison_of_JavaScript_charting_frameworks - cite_note-97"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.42578125" style="10" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="78.42578125" style="9"/>
+    <col min="1" max="1" width="72.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="78.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="22" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2375,7 +7473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -2385,277 +7483,277 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="11" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="85" style="42" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="39"/>
-    <col min="9" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="1" width="21.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11" style="36" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="85" style="35" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="32"/>
+    <col min="9" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="50"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="46" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45"/>
+      <c r="B3" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="45"/>
+      <c r="B5" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="45"/>
+      <c r="B6" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="45"/>
+      <c r="B7" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="45"/>
+      <c r="B8" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="45"/>
+      <c r="B9" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="45"/>
+      <c r="B10" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="45"/>
+      <c r="B11" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="45"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
+      <c r="B13" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
+      <c r="B14" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="47" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="52" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="108" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="51" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="45"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="48" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="45"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2667,7 +7765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D97"/>
   <sheetViews>
@@ -2685,740 +7783,813 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="65"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="57" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="56" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
     </row>
     <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
     </row>
     <row r="7" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
     </row>
     <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
     </row>
     <row r="11" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
     </row>
     <row r="12" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
     </row>
     <row r="14" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
     </row>
     <row r="16" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
     </row>
     <row r="18" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="67"/>
+      <c r="C23" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="101"/>
     </row>
     <row r="24" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="68"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="102"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="67"/>
+      <c r="C25" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="101"/>
     </row>
     <row r="26" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="68"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="102"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="67"/>
+      <c r="C27" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="101"/>
     </row>
     <row r="28" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="68"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="102"/>
     </row>
     <row r="29" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
     </row>
     <row r="30" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="67"/>
+      <c r="C31" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="101"/>
     </row>
     <row r="32" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="68"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="102"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="67"/>
+      <c r="C33" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="101"/>
     </row>
     <row r="34" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="68"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="102"/>
     </row>
     <row r="35" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
     </row>
     <row r="37" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
     </row>
     <row r="39" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="67"/>
+      <c r="C40" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="101"/>
     </row>
     <row r="41" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="68"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="102"/>
     </row>
     <row r="42" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
     </row>
     <row r="44" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
     </row>
     <row r="45" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="67"/>
+      <c r="C48" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="101"/>
     </row>
     <row r="49" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="68"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="102"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="67"/>
+      <c r="C50" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="101"/>
     </row>
     <row r="51" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="68"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="102"/>
     </row>
     <row r="52" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
     </row>
     <row r="54" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
     </row>
     <row r="56" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="67"/>
+      <c r="C57" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="101"/>
     </row>
     <row r="58" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="68"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="102"/>
     </row>
     <row r="59" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
     </row>
     <row r="61" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
     </row>
     <row r="63" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
     </row>
     <row r="65" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
     </row>
     <row r="67" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
     </row>
     <row r="69" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="67"/>
+      <c r="C70" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="101"/>
     </row>
     <row r="71" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C71" s="71"/>
-      <c r="D71" s="68"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="102"/>
     </row>
     <row r="72" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="69" t="s">
+      <c r="B72" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="107"/>
     </row>
     <row r="73" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="62"/>
+      <c r="C73" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="55"/>
     </row>
     <row r="74" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="62"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="55"/>
     </row>
     <row r="75" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="62"/>
+      <c r="C75" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="55"/>
     </row>
     <row r="76" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="62"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="55"/>
     </row>
     <row r="77" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D77" s="62"/>
+      <c r="C77" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="55"/>
     </row>
     <row r="78" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="71"/>
-      <c r="D78" s="62"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="55"/>
     </row>
     <row r="79" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="62"/>
+      <c r="C79" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="55"/>
     </row>
     <row r="80" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="62"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="55"/>
     </row>
     <row r="81" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="69" t="s">
+      <c r="B81" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="107"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="58" t="s">
+      <c r="B82" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
     </row>
     <row r="83" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="102"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
     </row>
     <row r="85" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="102"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="58" t="s">
+      <c r="B86" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="67"/>
+      <c r="C86" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="101"/>
     </row>
     <row r="87" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="68"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="102"/>
     </row>
     <row r="88" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="69" t="s">
+      <c r="B88" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="107"/>
     </row>
     <row r="89" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="52" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="75" t="s">
+      <c r="C90" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="76"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="106"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="58" t="s">
+      <c r="B92" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="D92" s="75" t="s">
+      <c r="C92" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C93" s="73"/>
-      <c r="D93" s="76"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="106"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="58" t="s">
+      <c r="B94" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="D94" s="75" t="s">
+      <c r="C94" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="105" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="76"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="106"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="D96" s="74"/>
+      <c r="C96" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="100"/>
     </row>
     <row r="97" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="57" t="s">
+      <c r="B97" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C97" s="73"/>
-      <c r="D97" s="74"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="C82:C83"/>
@@ -3434,79 +8605,6 @@
     <mergeCell ref="D92:D93"/>
     <mergeCell ref="C94:C95"/>
     <mergeCell ref="D94:D95"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B83" r:id="rId1" display="https://forum.reportserver.net/"/>
@@ -3514,116 +8612,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
-      <c r="C10" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
-      <c r="C11" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="77"/>
-      <c r="C12" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
-      <c r="C13" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:B13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ART Analytics Tech Selection.xlsx
+++ b/ART Analytics Tech Selection.xlsx
@@ -5,30 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06 Agila\01 Proj\01 Art\01  AaaS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agilavasu_p\Desktop\Learn\00 Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="16260" windowHeight="5850" tabRatio="889"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="16260" windowHeight="5850" tabRatio="889" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tech Selection" sheetId="6" r:id="rId1"/>
-    <sheet name="02 File Transfer" sheetId="17" r:id="rId2"/>
-    <sheet name="03 ETL" sheetId="18" r:id="rId3"/>
-    <sheet name="04 Analytics" sheetId="19" r:id="rId4"/>
-    <sheet name="05 MPP" sheetId="13" r:id="rId5"/>
-    <sheet name="06 Visual .js Comparison" sheetId="20" r:id="rId6"/>
-    <sheet name="06 Visual Shiny" sheetId="11" r:id="rId7"/>
-    <sheet name="07 BI Comparison" sheetId="15" r:id="rId8"/>
-    <sheet name="07 ReportServer" sheetId="16" r:id="rId9"/>
-    <sheet name="08 Directory Service" sheetId="12" r:id="rId10"/>
+    <sheet name="Tech Considered" sheetId="6" r:id="rId1"/>
+    <sheet name="Tech Selected" sheetId="21" r:id="rId2"/>
+    <sheet name="02 File Transfer" sheetId="17" r:id="rId3"/>
+    <sheet name="03 ETL" sheetId="18" r:id="rId4"/>
+    <sheet name="04 Analytics" sheetId="19" r:id="rId5"/>
+    <sheet name="05 MPP" sheetId="13" r:id="rId6"/>
+    <sheet name="06 Visual .js Comparison" sheetId="20" r:id="rId7"/>
+    <sheet name="06 Visual Shiny" sheetId="11" r:id="rId8"/>
+    <sheet name="07 BI Comparison" sheetId="15" r:id="rId9"/>
+    <sheet name="07 ReportServer" sheetId="16" r:id="rId10"/>
+    <sheet name="08 Directory Service" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="462">
   <si>
     <t>Greenplum</t>
   </si>
@@ -846,34 +847,7 @@
     <t>Docker Monitoring</t>
   </si>
   <si>
-    <t>Visual.ly</t>
-  </si>
-  <si>
-    <t>PiktoChart</t>
-  </si>
-  <si>
-    <t>Processing.js</t>
-  </si>
-  <si>
-    <t>Polymaps</t>
-  </si>
-  <si>
-    <t>Timeline.js</t>
-  </si>
-  <si>
-    <t>pykCharts</t>
-  </si>
-  <si>
-    <t>dimple.js</t>
-  </si>
-  <si>
     <t>C3.js</t>
-  </si>
-  <si>
-    <t>D3.js</t>
-  </si>
-  <si>
-    <t>Chart JS</t>
   </si>
   <si>
     <t>FusionCharts</t>
@@ -1766,11 +1740,114 @@
   <si>
     <t>https://en.wikipedia.org/wiki/Certificate_authority</t>
   </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Greenplum Command Center</t>
+  </si>
+  <si>
+    <t>Aginity Workbench</t>
+  </si>
+  <si>
+    <t>Current Version</t>
+  </si>
+  <si>
+    <t>Ambari 2.4</t>
+  </si>
+  <si>
+    <t>Tech Considered</t>
+  </si>
+  <si>
+    <t>Horton works Dataflow 2.0</t>
+  </si>
+  <si>
+    <t>Document Reference</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>MADLib 1.9.1</t>
+  </si>
+  <si>
+    <t>http://madlib.incubator.apache.org/</t>
+  </si>
+  <si>
+    <t>https://zeppelin.apache.org/</t>
+  </si>
+  <si>
+    <t>SpagoBI 5.2</t>
+  </si>
+  <si>
+    <t>Zeppelin 0.6.2</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Ambari</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Blue print automation?</t>
+  </si>
+  <si>
+    <t>Grafana</t>
+  </si>
+  <si>
+    <t>Zookeeper</t>
+  </si>
+  <si>
+    <t>Solr</t>
+  </si>
+  <si>
+    <t>Client Tool for file transfer</t>
+  </si>
+  <si>
+    <t>HTTP Server</t>
+  </si>
+  <si>
+    <t>NodeJS based application</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>InfluxDB</t>
+  </si>
+  <si>
+    <t>Monitoring 
+Dashboard</t>
+  </si>
+  <si>
+    <t>http://www.roguewave.com/resources/enterprise-blog/archive/an-in-depth-look-at-tomcat%E2%80%99s-clustering-mechanisms</t>
+  </si>
+  <si>
+    <t>Document Mgmt.</t>
+  </si>
+  <si>
+    <t>LogicalDOC</t>
+  </si>
+  <si>
+    <t>http://www.debianhelp.co.uk/proftpweb.htm</t>
+  </si>
+  <si>
+    <t>FTP Server (ProFTPD)</t>
+  </si>
+  <si>
+    <t>ZeppelinHub</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1977,7 +2054,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2095,6 +2172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,7 +2326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2488,6 +2571,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2542,6 +2664,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2562,6 +2687,63 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2885,25 +3067,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>68</v>
       </c>
@@ -2913,11 +3097,17 @@
       <c r="C1" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="92" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" s="61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="62">
         <v>1</v>
       </c>
@@ -2925,16 +3115,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="62">
         <v>2</v>
       </c>
@@ -2944,39 +3134,39 @@
       <c r="C5" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="64"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="64"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="62">
         <v>3</v>
       </c>
@@ -2986,18 +3176,29 @@
       <c r="C10" s="59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="94">
+        <v>2</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="62">
         <v>4</v>
       </c>
@@ -3007,26 +3208,26 @@
       <c r="C14" s="59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="87" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="62">
         <v>5</v>
       </c>
@@ -3036,195 +3237,1062 @@
       <c r="C19" s="59" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="62">
+      <c r="E19" s="91" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="91" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="62">
         <v>6</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B22" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C22" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="62">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="62">
         <v>7</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B30" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C30" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="65" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="65" t="s">
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="62">
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="62">
         <v>8</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B34" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C34" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="62">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="62">
         <v>9</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B41" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="62">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="60" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="58"/>
+      <c r="C1" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="122" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+    </row>
+    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+    </row>
+    <row r="7" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+    </row>
+    <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+    </row>
+    <row r="11" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+    </row>
+    <row r="12" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+    </row>
+    <row r="14" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+    </row>
+    <row r="16" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+    </row>
+    <row r="18" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="116"/>
+    </row>
+    <row r="24" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="117"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="116"/>
+    </row>
+    <row r="26" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="119"/>
+      <c r="D26" s="117"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="116"/>
+    </row>
+    <row r="28" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="119"/>
+      <c r="D28" s="117"/>
+    </row>
+    <row r="29" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+    </row>
+    <row r="30" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="116"/>
+    </row>
+    <row r="32" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="119"/>
+      <c r="D32" s="117"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="116"/>
+    </row>
+    <row r="34" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="119"/>
+      <c r="D34" s="117"/>
+    </row>
+    <row r="35" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+    </row>
+    <row r="37" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+    </row>
+    <row r="39" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="116"/>
+    </row>
+    <row r="41" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="119"/>
+      <c r="D41" s="117"/>
+    </row>
+    <row r="42" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+    </row>
+    <row r="44" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+    </row>
+    <row r="45" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+    </row>
+    <row r="47" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="116"/>
+    </row>
+    <row r="49" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="119"/>
+      <c r="D49" s="117"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="116"/>
+    </row>
+    <row r="51" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="119"/>
+      <c r="D51" s="117"/>
+    </row>
+    <row r="52" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+    </row>
+    <row r="54" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+    </row>
+    <row r="56" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="116"/>
+    </row>
+    <row r="58" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="119"/>
+      <c r="D58" s="117"/>
+    </row>
+    <row r="59" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+    </row>
+    <row r="61" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+    </row>
+    <row r="63" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+    </row>
+    <row r="65" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+    </row>
+    <row r="67" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+    </row>
+    <row r="69" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="116"/>
+    </row>
+    <row r="71" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="119"/>
+      <c r="D71" s="117"/>
+    </row>
+    <row r="72" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="122"/>
+      <c r="D72" s="122"/>
+    </row>
+    <row r="73" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="55"/>
+    </row>
+    <row r="74" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="119"/>
+      <c r="D74" s="55"/>
+    </row>
+    <row r="75" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="55"/>
+    </row>
+    <row r="76" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="119"/>
+      <c r="D76" s="55"/>
+    </row>
+    <row r="77" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="55"/>
+    </row>
+    <row r="78" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="119"/>
+      <c r="D78" s="55"/>
+    </row>
+    <row r="79" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="55"/>
+    </row>
+    <row r="80" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="119"/>
+      <c r="D80" s="55"/>
+    </row>
+    <row r="81" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+    </row>
+    <row r="83" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="116"/>
+      <c r="D84" s="116"/>
+    </row>
+    <row r="85" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="117"/>
+      <c r="D85" s="117"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="116"/>
+    </row>
+    <row r="87" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="119"/>
+      <c r="D87" s="117"/>
+    </row>
+    <row r="88" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+    </row>
+    <row r="89" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="114"/>
+      <c r="D91" s="121"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="114"/>
+      <c r="D93" s="121"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="114"/>
+      <c r="D95" s="121"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="115"/>
+    </row>
+    <row r="97" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="114"/>
+      <c r="D97" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="88">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B83" r:id="rId1" display="https://forum.reportserver.net/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C13"/>
   <sheetViews>
@@ -3297,7 +4365,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="123" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3305,25 +4373,25 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="108"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="108"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="108"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="29" t="s">
         <v>91</v>
       </c>
@@ -3338,33 +4406,695 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="95" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="95" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="95"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="102">
+        <v>0</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="102"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="97"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="102"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="97"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="102"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="97"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="102">
+        <v>1</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="102"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="97"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="102"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="97"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="102"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="97"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102">
+        <v>2</v>
+      </c>
+      <c r="B14" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="97"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="102"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="99" t="s">
+        <v>460</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99" t="s">
+        <v>459</v>
+      </c>
+      <c r="G15" s="97"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="102"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="99" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="97"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="102"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="99" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="97"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="102"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="97"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="102"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="97"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="102">
+        <v>3</v>
+      </c>
+      <c r="B20" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="D20" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="E20" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="99"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="102"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="102"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="102"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="102"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="102"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="102">
+        <v>4</v>
+      </c>
+      <c r="B26" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D26" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="102"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="102"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="124" t="s">
+        <v>461</v>
+      </c>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="102"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="102">
+        <v>5</v>
+      </c>
+      <c r="B30" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="102"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99" t="s">
+        <v>431</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="102"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="102"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="102"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="102"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="102">
+        <v>6</v>
+      </c>
+      <c r="B36" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="102"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="99" t="s">
+        <v>453</v>
+      </c>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="102"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="102"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="102">
+        <v>7</v>
+      </c>
+      <c r="B40" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="99" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="102"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="102"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="102"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="102"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="102"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="102">
+        <v>8</v>
+      </c>
+      <c r="B46" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="102"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="102"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="102"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="102"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="102"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="102">
+        <v>8</v>
+      </c>
+      <c r="B52" s="103" t="s">
+        <v>455</v>
+      </c>
+      <c r="C52" s="99" t="s">
+        <v>454</v>
+      </c>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="102"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="99" t="s">
+        <v>447</v>
+      </c>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="102"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="102"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="102"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="102"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="101" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
@@ -3398,7 +5128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B20"/>
   <sheetViews>
@@ -3450,32 +5180,32 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="89" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="88" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="88" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3487,11 +5217,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
@@ -3519,118 +5249,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>417</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95" t="s">
-        <v>416</v>
-      </c>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="97"/>
+      <c r="A1" s="105" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110" t="s">
+        <v>407</v>
+      </c>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="112"/>
       <c r="R1" s="83" t="s">
-        <v>415</v>
-      </c>
-      <c r="S1" s="95" t="s">
-        <v>414</v>
-      </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="95" t="s">
-        <v>413</v>
-      </c>
-      <c r="V1" s="96"/>
-      <c r="W1" s="97"/>
+        <v>406</v>
+      </c>
+      <c r="S1" s="110" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="112"/>
+      <c r="U1" s="110" t="s">
+        <v>404</v>
+      </c>
+      <c r="V1" s="111"/>
+      <c r="W1" s="112"/>
       <c r="X1" s="83" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="Y1" s="84" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="82" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F2" s="82" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H2" s="82" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="O2" s="83" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="P2" s="83" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="Q2" s="83" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="R2" s="82" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="S2" s="83" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="T2" s="83" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="U2" s="82" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="V2" s="82" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="W2" s="82" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="X2" s="82" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="Y2" s="81" t="s">
         <v>64</v>
@@ -3638,7 +5368,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>124</v>
@@ -3701,19 +5431,19 @@
         <v>143</v>
       </c>
       <c r="V3" s="71" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="W3" s="70" t="s">
         <v>124</v>
       </c>
       <c r="X3" s="68"/>
       <c r="Y3" s="74" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>124</v>
@@ -3785,12 +5515,12 @@
         <v>124</v>
       </c>
       <c r="Y4" s="76" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>124</v>
@@ -3850,7 +5580,7 @@
         <v>124</v>
       </c>
       <c r="U5" s="71" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="V5" s="69" t="s">
         <v>143</v>
@@ -3860,12 +5590,12 @@
       </c>
       <c r="X5" s="68"/>
       <c r="Y5" s="80" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>124</v>
@@ -3925,22 +5655,22 @@
         <v>124</v>
       </c>
       <c r="U6" s="71" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="V6" s="69" t="s">
         <v>143</v>
       </c>
       <c r="W6" s="71" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="X6" s="68"/>
       <c r="Y6" s="80" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>124</v>
@@ -4010,12 +5740,12 @@
       </c>
       <c r="X7" s="68"/>
       <c r="Y7" s="77" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>124</v>
@@ -4087,12 +5817,12 @@
         <v>143</v>
       </c>
       <c r="Y8" s="76" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B9" s="70" t="s">
         <v>124</v>
@@ -4155,7 +5885,7 @@
         <v>124</v>
       </c>
       <c r="V9" s="78" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="W9" s="69" t="s">
         <v>143</v>
@@ -4167,7 +5897,7 @@
     </row>
     <row r="10" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>124</v>
@@ -4237,12 +5967,12 @@
       </c>
       <c r="X10" s="68"/>
       <c r="Y10" s="67" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="72" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>143</v>
@@ -4314,12 +6044,12 @@
         <v>124</v>
       </c>
       <c r="Y11" s="76" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>124</v>
@@ -4382,7 +6112,7 @@
         <v>124</v>
       </c>
       <c r="V12" s="71" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="W12" s="69" t="s">
         <v>143</v>
@@ -4391,12 +6121,12 @@
         <v>124</v>
       </c>
       <c r="Y12" s="75" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B13" s="70" t="s">
         <v>124</v>
@@ -4459,19 +6189,19 @@
         <v>143</v>
       </c>
       <c r="V13" s="71" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="W13" s="69" t="s">
         <v>143</v>
       </c>
       <c r="X13" s="68"/>
       <c r="Y13" s="76" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B14" s="70" t="s">
         <v>124</v>
@@ -4501,7 +6231,7 @@
         <v>143</v>
       </c>
       <c r="K14" s="71" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L14" s="69" t="s">
         <v>143</v>
@@ -4541,12 +6271,12 @@
       </c>
       <c r="X14" s="68"/>
       <c r="Y14" s="67" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B15" s="70" t="s">
         <v>124</v>
@@ -4618,12 +6348,12 @@
         <v>124</v>
       </c>
       <c r="Y15" s="76" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>124</v>
@@ -4689,16 +6419,16 @@
         <v>124</v>
       </c>
       <c r="W16" s="71" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="X16" s="68"/>
       <c r="Y16" s="76" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B17" s="70" t="s">
         <v>124</v>
@@ -4768,30 +6498,30 @@
       </c>
       <c r="X17" s="68"/>
       <c r="Y17" s="76" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C18" s="69" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H18" s="69" t="s">
         <v>143</v>
@@ -4815,13 +6545,13 @@
         <v>143</v>
       </c>
       <c r="O18" s="71" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="P18" s="71" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="71" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="R18" s="70" t="s">
         <v>124</v>
@@ -4843,12 +6573,12 @@
       </c>
       <c r="X18" s="68"/>
       <c r="Y18" s="67" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B19" s="70" t="s">
         <v>124</v>
@@ -4908,7 +6638,7 @@
         <v>124</v>
       </c>
       <c r="U19" s="71" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="V19" s="69" t="s">
         <v>143</v>
@@ -4918,12 +6648,12 @@
       </c>
       <c r="X19" s="68"/>
       <c r="Y19" s="76" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>124</v>
@@ -4989,16 +6719,16 @@
         <v>124</v>
       </c>
       <c r="W20" s="71" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X20" s="68"/>
       <c r="Y20" s="74" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B21" s="70" t="s">
         <v>124</v>
@@ -5058,7 +6788,7 @@
         <v>124</v>
       </c>
       <c r="U21" s="71" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="V21" s="69" t="s">
         <v>143</v>
@@ -5068,12 +6798,12 @@
       </c>
       <c r="X21" s="68"/>
       <c r="Y21" s="76" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B22" s="70" t="s">
         <v>124</v>
@@ -5139,16 +6869,16 @@
         <v>124</v>
       </c>
       <c r="W22" s="71" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="X22" s="68"/>
       <c r="Y22" s="67" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B23" s="70" t="s">
         <v>124</v>
@@ -5211,19 +6941,19 @@
         <v>143</v>
       </c>
       <c r="V23" s="71" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="W23" s="69" t="s">
         <v>143</v>
       </c>
       <c r="X23" s="68"/>
       <c r="Y23" s="76" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B24" s="70" t="s">
         <v>124</v>
@@ -5293,12 +7023,12 @@
       </c>
       <c r="X24" s="68"/>
       <c r="Y24" s="67" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B25" s="70" t="s">
         <v>124</v>
@@ -5358,7 +7088,7 @@
         <v>124</v>
       </c>
       <c r="U25" s="78" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="V25" s="70" t="s">
         <v>124</v>
@@ -5370,12 +7100,12 @@
         <v>124</v>
       </c>
       <c r="Y25" s="75" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="72" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B26" s="70" t="s">
         <v>124</v>
@@ -5435,7 +7165,7 @@
         <v>124</v>
       </c>
       <c r="U26" s="71" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="V26" s="69" t="s">
         <v>143</v>
@@ -5445,12 +7175,12 @@
       </c>
       <c r="X26" s="68"/>
       <c r="Y26" s="76" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B27" s="70" t="s">
         <v>124</v>
@@ -5510,7 +7240,7 @@
         <v>124</v>
       </c>
       <c r="U27" s="71" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="V27" s="69" t="s">
         <v>143</v>
@@ -5522,12 +7252,12 @@
         <v>124</v>
       </c>
       <c r="Y27" s="74" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B28" s="70" t="s">
         <v>124</v>
@@ -5597,12 +7327,12 @@
       </c>
       <c r="X28" s="68"/>
       <c r="Y28" s="76" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B29" s="70" t="s">
         <v>124</v>
@@ -5674,12 +7404,12 @@
         <v>124</v>
       </c>
       <c r="Y29" s="76" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B30" s="70" t="s">
         <v>124</v>
@@ -5742,19 +7472,19 @@
         <v>143</v>
       </c>
       <c r="V30" s="71" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="W30" s="69" t="s">
         <v>143</v>
       </c>
       <c r="X30" s="68"/>
       <c r="Y30" s="76" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B31" s="70" t="s">
         <v>124</v>
@@ -5824,12 +7554,12 @@
       </c>
       <c r="X31" s="68"/>
       <c r="Y31" s="67" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="72" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B32" s="70" t="s">
         <v>124</v>
@@ -5892,19 +7622,19 @@
         <v>143</v>
       </c>
       <c r="V32" s="71" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="W32" s="69" t="s">
         <v>143</v>
       </c>
       <c r="X32" s="68"/>
       <c r="Y32" s="76" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B33" s="70" t="s">
         <v>124</v>
@@ -5979,7 +7709,7 @@
     </row>
     <row r="34" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B34" s="70" t="s">
         <v>124</v>
@@ -6039,7 +7769,7 @@
         <v>124</v>
       </c>
       <c r="U34" s="71" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="V34" s="69" t="s">
         <v>143</v>
@@ -6049,12 +7779,12 @@
       </c>
       <c r="X34" s="68"/>
       <c r="Y34" s="76" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="72" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B35" s="70" t="s">
         <v>124</v>
@@ -6117,19 +7847,19 @@
         <v>143</v>
       </c>
       <c r="V35" s="71" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="W35" s="69" t="s">
         <v>143</v>
       </c>
       <c r="X35" s="68"/>
       <c r="Y35" s="76" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B36" s="70" t="s">
         <v>124</v>
@@ -6195,16 +7925,16 @@
         <v>124</v>
       </c>
       <c r="W36" s="71" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="X36" s="68"/>
       <c r="Y36" s="67" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B37" s="70" t="s">
         <v>124</v>
@@ -6276,12 +8006,12 @@
         <v>124</v>
       </c>
       <c r="Y37" s="74" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B38" s="70" t="s">
         <v>124</v>
@@ -6351,12 +8081,12 @@
       </c>
       <c r="X38" s="68"/>
       <c r="Y38" s="67" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="72" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B39" s="70" t="s">
         <v>124</v>
@@ -6426,12 +8156,12 @@
       </c>
       <c r="X39" s="68"/>
       <c r="Y39" s="67" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="72" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B40" s="70" t="s">
         <v>124</v>
@@ -6501,12 +8231,12 @@
       </c>
       <c r="X40" s="68"/>
       <c r="Y40" s="74" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="72" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B41" s="70" t="s">
         <v>124</v>
@@ -6576,12 +8306,12 @@
       </c>
       <c r="X41" s="68"/>
       <c r="Y41" s="76" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="72" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B42" s="70" t="s">
         <v>124</v>
@@ -6644,19 +8374,19 @@
         <v>143</v>
       </c>
       <c r="V42" s="71" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="W42" s="69" t="s">
         <v>143</v>
       </c>
       <c r="X42" s="68"/>
       <c r="Y42" s="76" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="72" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B43" s="70" t="s">
         <v>124</v>
@@ -6722,16 +8452,16 @@
         <v>124</v>
       </c>
       <c r="W43" s="71" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="X43" s="68"/>
       <c r="Y43" s="75" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="72" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B44" s="70" t="s">
         <v>124</v>
@@ -6797,18 +8527,18 @@
         <v>124</v>
       </c>
       <c r="W44" s="71" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="X44" s="70" t="s">
         <v>124</v>
       </c>
       <c r="Y44" s="74" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="72" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B45" s="70" t="s">
         <v>124</v>
@@ -6868,7 +8598,7 @@
         <v>124</v>
       </c>
       <c r="U45" s="71" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="V45" s="69" t="s">
         <v>143</v>
@@ -6878,13 +8608,13 @@
       </c>
       <c r="X45" s="68"/>
       <c r="Y45" s="67" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="72" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B50" s="70" t="s">
         <v>124</v>
@@ -6956,36 +8686,36 @@
         <v>124</v>
       </c>
       <c r="Y50" s="73" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="72" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B51" s="71" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C51" s="69" t="s">
         <v>143</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E51" s="71" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F51" s="71" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I51" s="71" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="J51" s="69" t="s">
         <v>143</v>
@@ -6997,16 +8727,16 @@
         <v>143</v>
       </c>
       <c r="M51" s="71" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N51" s="71" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="O51" s="70" t="s">
         <v>124</v>
       </c>
       <c r="P51" s="71" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="Q51" s="70" t="s">
         <v>124</v>
@@ -7015,7 +8745,7 @@
         <v>124</v>
       </c>
       <c r="S51" s="71" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="T51" s="70" t="s">
         <v>124</v>
@@ -7031,40 +8761,40 @@
       </c>
       <c r="X51" s="68"/>
       <c r="Y51" s="67" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="86" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H57" s="85"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H58" s="85"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H59" s="85"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -7220,7 +8950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -7473,7 +9203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -7763,853 +9493,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D97"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="58"/>
-      <c r="C1" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-    </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-    </row>
-    <row r="7" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-    </row>
-    <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-    </row>
-    <row r="11" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-    </row>
-    <row r="12" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-    </row>
-    <row r="14" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-    </row>
-    <row r="16" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-    </row>
-    <row r="18" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-    </row>
-    <row r="20" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-    </row>
-    <row r="22" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="101"/>
-    </row>
-    <row r="24" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="102"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="101"/>
-    </row>
-    <row r="26" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="102"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="101"/>
-    </row>
-    <row r="28" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="102"/>
-    </row>
-    <row r="29" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-    </row>
-    <row r="30" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="101"/>
-    </row>
-    <row r="32" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="102"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="101"/>
-    </row>
-    <row r="34" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="102"/>
-    </row>
-    <row r="35" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="107" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-    </row>
-    <row r="37" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-    </row>
-    <row r="39" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="101"/>
-    </row>
-    <row r="41" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="102"/>
-    </row>
-    <row r="42" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-    </row>
-    <row r="44" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-    </row>
-    <row r="45" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-    </row>
-    <row r="47" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="C48" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="101"/>
-    </row>
-    <row r="49" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="102"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="101"/>
-    </row>
-    <row r="51" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="102"/>
-    </row>
-    <row r="52" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-    </row>
-    <row r="54" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-    </row>
-    <row r="56" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="101"/>
-    </row>
-    <row r="58" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="102"/>
-    </row>
-    <row r="59" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-    </row>
-    <row r="61" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
-    </row>
-    <row r="63" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-    </row>
-    <row r="65" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" s="101"/>
-      <c r="D66" s="101"/>
-    </row>
-    <row r="67" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="101"/>
-      <c r="D68" s="101"/>
-    </row>
-    <row r="69" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" s="102"/>
-      <c r="D69" s="102"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="101"/>
-    </row>
-    <row r="71" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="102"/>
-    </row>
-    <row r="72" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="107"/>
-      <c r="D72" s="107"/>
-    </row>
-    <row r="73" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="55"/>
-    </row>
-    <row r="74" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="104"/>
-      <c r="D74" s="55"/>
-    </row>
-    <row r="75" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="55"/>
-    </row>
-    <row r="76" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="104"/>
-      <c r="D76" s="55"/>
-    </row>
-    <row r="77" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D77" s="55"/>
-    </row>
-    <row r="78" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="104"/>
-      <c r="D78" s="55"/>
-    </row>
-    <row r="79" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="55"/>
-    </row>
-    <row r="80" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="104"/>
-      <c r="D80" s="55"/>
-    </row>
-    <row r="81" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="107"/>
-      <c r="D81" s="107"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-    </row>
-    <row r="83" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="102"/>
-      <c r="D83" s="102"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-    </row>
-    <row r="85" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="C85" s="102"/>
-      <c r="D85" s="102"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="101"/>
-    </row>
-    <row r="87" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="102"/>
-    </row>
-    <row r="88" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="107"/>
-      <c r="D88" s="107"/>
-    </row>
-    <row r="89" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C89" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D89" s="52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="C90" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="99"/>
-      <c r="D91" s="106"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="D92" s="105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="99"/>
-      <c r="D93" s="106"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="D94" s="105" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" s="99"/>
-      <c r="D95" s="106"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="D96" s="100"/>
-    </row>
-    <row r="97" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="99"/>
-      <c r="D97" s="100"/>
-    </row>
-  </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B83" r:id="rId1" display="https://forum.reportserver.net/"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>